--- a/ObackOfficeAPI/ObackOfficeAPI/Plantillas Excel/Plantilla Reporte Academico.xlsx
+++ b/ObackOfficeAPI/ObackOfficeAPI/Plantillas Excel/Plantilla Reporte Academico.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Nombre</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Curso</t>
   </si>
   <si>
-    <t>Nota</t>
-  </si>
-  <si>
     <t>Condición</t>
   </si>
   <si>
@@ -111,25 +108,13 @@
     <t>¿Participa de forma voluntaria?</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>¿Muestra iniciativa e interes?</t>
   </si>
   <si>
     <t>¿Incentiva al resto del grupo?</t>
+  </si>
+  <si>
+    <t>Nota Cuantitativa</t>
   </si>
 </sst>
 </file>
@@ -805,9 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A100:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -831,45 +814,45 @@
         <v>5</v>
       </c>
       <c r="G100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="I100" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="J100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="K100" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="F101" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="G101" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="H101" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="I101" s="4">
         <v>43143</v>
@@ -881,31 +864,31 @@
     </row>
     <row r="102" spans="1:11" s="10" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="C102" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="F102" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F102" s="11" t="s">
+      <c r="G102" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G102" s="12" t="s">
+      <c r="H102" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H102" s="12" t="s">
+      <c r="I102" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I102" s="12" t="s">
+      <c r="J102" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J102" s="12" t="s">
+      <c r="K102" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="K102" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -913,28 +896,28 @@
         <v>43143</v>
       </c>
       <c r="B103" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="F103" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F103" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G103" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H103" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I103" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J103" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="K103" s="19" t="s">
-        <v>35</v>
+      <c r="G103" s="18">
+        <v>1</v>
+      </c>
+      <c r="H103" s="18">
+        <v>2</v>
+      </c>
+      <c r="I103" s="18">
+        <v>3</v>
+      </c>
+      <c r="J103" s="18">
+        <v>4</v>
+      </c>
+      <c r="K103" s="19">
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -942,28 +925,28 @@
         <v>43144</v>
       </c>
       <c r="B104" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C104" s="22" t="s">
-        <v>29</v>
-      </c>
       <c r="F104" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G104" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H104" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I104" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J104" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="K104" s="25" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="G104" s="24">
+        <v>1</v>
+      </c>
+      <c r="H104" s="24">
+        <v>2</v>
+      </c>
+      <c r="I104" s="24">
+        <v>3</v>
+      </c>
+      <c r="J104" s="24">
+        <v>4</v>
+      </c>
+      <c r="K104" s="25">
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -973,22 +956,22 @@
       <c r="D105" s="26"/>
       <c r="E105" s="26"/>
       <c r="F105" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G105" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H105" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I105" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="J105" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="K105" s="29" t="s">
-        <v>35</v>
+      <c r="G105" s="28">
+        <v>1</v>
+      </c>
+      <c r="H105" s="28">
+        <v>2</v>
+      </c>
+      <c r="I105" s="28">
+        <v>3</v>
+      </c>
+      <c r="J105" s="28">
+        <v>4</v>
+      </c>
+      <c r="K105" s="29">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
